--- a/data/long_dif/P23_10-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_10-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>20,01%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25,11%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24,74%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21,14%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>25,79%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,84; 33,51</t>
+          <t>23,13; 32,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,72; 32,62</t>
+          <t>20,51; 31,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,58; 26,49</t>
+          <t>17,22; 27,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,79; 23,27</t>
+          <t>21,93; 32,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,17; 28,36</t>
+          <t>18,23; 25,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,76; 26,37</t>
+          <t>17,04; 23,44</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16,02; 23,74</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 29,61</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21,78; 27,69</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19,95; 26,48</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18,18; 24,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 29,26</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>51,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>53,01%</t>
+          <t>52,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>43,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,86%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>56,29%</t>
+          <t>59,25%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>58,51%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53,35%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54,23%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>56,11%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>52,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>48,33%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,28; 56,97</t>
+          <t>45,95; 58,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,02; 57,93</t>
+          <t>46,75; 57,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,53; 61,31</t>
+          <t>37,54; 52,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,52; 63,54</t>
+          <t>36,51; 49,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,65; 58,03</t>
+          <t>52,32; 61,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,54; 59,38</t>
+          <t>55,02; 63,26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>53,51; 63,89</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48,05; 58,42</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50,63; 57,97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>52,27; 59,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>47,25; 56,63</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>44,22; 52,57</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,92%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21,54%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21,42%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>26,22%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25,88%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 25,35</t>
+          <t>17,13; 25,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 25,86</t>
+          <t>18,25; 26,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 24,53</t>
+          <t>24,52; 44,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,11; 24,2</t>
+          <t>24,19; 37,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,2; 23,37</t>
+          <t>17,59; 25,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,73; 23,63</t>
+          <t>17,63; 24,07</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 26,48</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17,31; 26,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>18,46; 24,02</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 24,18</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22,35; 32,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22,41; 29,84</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,58; 25,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,04; 32,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,78; 34,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,92; 22,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,39; 28,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,35; 26,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>61,97%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,67%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>19,82%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24,25%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24,91%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23,77%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>23,48%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47,7; 60,81</t>
+          <t>16,83; 26,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,95; 58,17</t>
+          <t>22,6; 33,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,95; 55,08</t>
+          <t>16,94; 27,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57,11; 66,58</t>
+          <t>13,63; 32,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,36; 56,54</t>
+          <t>24,05; 34,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,26; 60,8</t>
+          <t>16,26; 23,84</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19,52; 31,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,28; 34,17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21,6; 28,43</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20,58; 27,69</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>19,51; 27,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17,53; 30,21</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>51,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>56,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>52,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>61,56%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>52,85%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>46,86%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>51,36%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>56,54%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>54,62%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>49,64%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,5; 30,41</t>
+          <t>46,79; 59,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,37; 24,55</t>
+          <t>46,4; 58,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,62; 26,23</t>
+          <t>48,46; 62,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,3; 22,51</t>
+          <t>40,77; 66,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,56; 26,77</t>
+          <t>43,42; 54,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,53; 22,34</t>
+          <t>57,17; 65,88</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47,22; 58,62</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35,86; 57,28</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>47,38; 55,66</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>52,69; 60,02</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>49,34; 58,99</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>41,72; 58,54</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>18,62%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22,91%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28,22%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23,76%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19,69%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>26,88%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,86; 46,7</t>
+          <t>20,06; 31,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,92; 29,89</t>
+          <t>16,33; 24,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,44; 28,41</t>
+          <t>16,54; 29,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,89; 26,98</t>
+          <t>17,22; 35,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,86; 34,6</t>
+          <t>18,04; 26,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,25; 23,85</t>
+          <t>15,37; 22,14</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18,56; 28,06</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>19,9; 38,75</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20,3; 27,36</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16,93; 22,69</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,65; 26,86</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20,42; 33,59</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>61,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>54,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>56,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>50,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>59,21%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>32,18; 56,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>50,13; 71,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,11; 65,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,3; 65,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>41,33; 57,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,85; 65,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>18,3%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>17,19%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>22,56%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,61; 38,89</t>
+          <t>21,79; 44,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,25; 33,28</t>
+          <t>7,85; 29,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,71; 35,55</t>
+          <t>15,44; 45,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,55; 34,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16,72; 32,48</t>
+          <t>12,89; 29,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,13; 31,58</t>
+          <t>12,15; 26,02</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 25,94</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>19,85; 33,7</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>11,46; 24,32</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>14,95; 32,58</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>60,57%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>54,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>56,16%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>64,58%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>49,6%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>58,37%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>51,45%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>23,15; 29,98</t>
+          <t>32,08; 57,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21,4; 28,99</t>
+          <t>48,83; 70,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,78; 27,82</t>
+          <t>22,69; 53,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,35; 21,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>23,17; 27,8</t>
+          <t>43,82; 63,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,08; 24,53</t>
+          <t>47,49; 64,19</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>52,96; 74,46</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>40,46; 57,79</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>50,95; 66,08</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>39,51; 61,1</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>54,01%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>53,62%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>52,56%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>25,54%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>26,0%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>47,4; 55,59</t>
+          <t>11,26; 42,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>50,42; 57,7</t>
+          <t>17,52; 36,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>50,37; 56,93</t>
+          <t>19,02; 57,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>57,22; 63,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>49,96; 55,04</t>
+          <t>18,87; 36,15</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>54,5; 59,33</t>
+          <t>17,78; 33,36</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 28,88</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>18,18; 37,96</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>19,53; 32,45</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>17,17; 41,43</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>18,97; 25,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>18,87; 24,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,42; 24,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>18,4; 23,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,18; 24,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,17; 22,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>25,62%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>23,13%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>25,48%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>19,74%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>25,07%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>24,96%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>22,09%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>25,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>22,29; 28,85</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>21,5; 29,55</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>19,23; 26,77</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>21,05; 29,83</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>21,62; 27,44</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>17,6; 22,11</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>18,02; 24,22</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>21,46; 28,94</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 27,14</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>20,21; 24,47</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>19,81; 24,88</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>22,38; 28,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>51,54%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>53,22%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>49,36%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>45,23%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>53,54%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>59,76%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>57,03%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>52,0%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>52,56%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>56,54%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>53,28%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>48,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>47,58; 55,87</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>49,18; 56,89</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>44,33; 54,23</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>39,81; 51,02</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>50,46; 56,74</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>57,01; 62,69</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>53,18; 60,37</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>47,33; 56,82</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>50,06; 55,04</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>54,42; 58,98</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>49,86; 56,12</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>45,36; 52,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>22,84%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>29,29%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>20,5%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>21,88%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>22,93%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>22,48%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>26,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>19,93; 26,54</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>19,13; 24,76</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>22,92; 35,0</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>24,33; 34,68</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>19,43; 24,71</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>18,2; 23,0</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 25,31</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>19,54; 27,16</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>20,45; 25,02</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>19,48; 22,9</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 28,72</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>22,93; 29,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_10-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_10-Urba-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1570,7 +1570,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1684,7 +1684,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1934,7 +1934,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2066,7 +2066,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
